--- a/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023 (tasa de respuesta: 99,76%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>93878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74573</v>
+        <v>75061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113071</v>
+        <v>114093</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.171290114243246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1360663432489594</v>
+        <v>0.1369566792957833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2063102482366476</v>
+        <v>0.2081734468749364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>94</v>
@@ -762,19 +762,19 @@
         <v>75009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61090</v>
+        <v>59497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91837</v>
+        <v>90086</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1535783260199792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1250796767639122</v>
+        <v>0.1218167294218565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.188032097926097</v>
+        <v>0.1844473957815163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -783,19 +783,19 @@
         <v>168887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>144141</v>
+        <v>145039</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192669</v>
+        <v>191693</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1629439204374006</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1390682186838365</v>
+        <v>0.1399344409558107</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1858882559710686</v>
+        <v>0.1849465174269195</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>76046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60152</v>
+        <v>60077</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95534</v>
+        <v>94466</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1387530803231663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.109752810794587</v>
+        <v>0.1096163368436907</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1743106095114638</v>
+        <v>0.1723632569166229</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -833,19 +833,19 @@
         <v>56041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43805</v>
+        <v>43351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72137</v>
+        <v>71398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1147423733607116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08968867329463021</v>
+        <v>0.08876012449570153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1476970512200993</v>
+        <v>0.1461848904698405</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -854,19 +854,19 @@
         <v>132087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>111110</v>
+        <v>112239</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157797</v>
+        <v>156583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1274386940399812</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1072002350022915</v>
+        <v>0.1082891038024423</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1522436557577372</v>
+        <v>0.1510723434937398</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>230901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>208084</v>
+        <v>208143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>254924</v>
+        <v>254307</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4213027661256198</v>
+        <v>0.4213027661256197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3796695110543575</v>
+        <v>0.3797772020407886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4651339573318122</v>
+        <v>0.4640093690781245</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>363</v>
@@ -904,19 +904,19 @@
         <v>242946</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223159</v>
+        <v>225329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>262546</v>
+        <v>263582</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4974215699941328</v>
+        <v>0.4974215699941327</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4569076108905007</v>
+        <v>0.4613513078985662</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5375505706846982</v>
+        <v>0.5396730907362151</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>614</v>
@@ -925,19 +925,19 @@
         <v>473847</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>442879</v>
+        <v>442545</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>503366</v>
+        <v>503242</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4571716621031129</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4272931445846931</v>
+        <v>0.4269704718325826</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4856509730927089</v>
+        <v>0.4855315027280969</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>92990</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75975</v>
+        <v>75911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111400</v>
+        <v>113180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1696696276179128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1386249689806747</v>
+        <v>0.1385072980232792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2032600959940006</v>
+        <v>0.2065088852841145</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -975,19 +975,19 @@
         <v>57271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45297</v>
+        <v>45136</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69615</v>
+        <v>69627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1172593394264642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09274367331013918</v>
+        <v>0.09241315669634557</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1425338354954296</v>
+        <v>0.1425585716155915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -996,19 +996,19 @@
         <v>150261</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128816</v>
+        <v>129036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171631</v>
+        <v>173669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1449727185790263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1242824773959438</v>
+        <v>0.1244948096814563</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1655909966034952</v>
+        <v>0.1675572551563752</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>54250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40900</v>
+        <v>40289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72082</v>
+        <v>70169</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09898441169005515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07462660643186386</v>
+        <v>0.07351159797741501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1315214899723216</v>
+        <v>0.1280305073428455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -1046,19 +1046,19 @@
         <v>57143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45665</v>
+        <v>44660</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70030</v>
+        <v>69600</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1169983911987122</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.093496584375898</v>
+        <v>0.09143905822978676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1433824079568505</v>
+        <v>0.1425022077076407</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>130</v>
@@ -1067,19 +1067,19 @@
         <v>111393</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92935</v>
+        <v>93663</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130343</v>
+        <v>132024</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.107473004840479</v>
+        <v>0.1074730048404789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08966425264327645</v>
+        <v>0.09036711071381916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1257554686729017</v>
+        <v>0.1273775613717082</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>71759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56518</v>
+        <v>54804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90637</v>
+        <v>92710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1485031445182775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1169635666203641</v>
+        <v>0.1134166378892703</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1875723437785096</v>
+        <v>0.1918612132237619</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -1192,19 +1192,19 @@
         <v>47019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37343</v>
+        <v>36961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60342</v>
+        <v>59906</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1111181479946015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08825053140733133</v>
+        <v>0.08734783754155202</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1426032313328753</v>
+        <v>0.1415739329111655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>125</v>
@@ -1213,19 +1213,19 @@
         <v>118777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>99101</v>
+        <v>99595</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>141738</v>
+        <v>141595</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1310495042645406</v>
+        <v>0.1310495042645407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1093401015566163</v>
+        <v>0.1098850934471671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.156382594459967</v>
+        <v>0.1562245457732884</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>66526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49492</v>
+        <v>49683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82900</v>
+        <v>83857</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1376736624104834</v>
+        <v>0.1376736624104833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1024231318433475</v>
+        <v>0.1028183966890031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.171559621640451</v>
+        <v>0.1735417139525814</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -1263,19 +1263,19 @@
         <v>31139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22419</v>
+        <v>22159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43051</v>
+        <v>43104</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07359020735907899</v>
+        <v>0.07359020735907901</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05298231922764252</v>
+        <v>0.05236813329740597</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1017416261227028</v>
+        <v>0.101866298408804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -1284,19 +1284,19 @@
         <v>97665</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>79360</v>
+        <v>78350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>117784</v>
+        <v>119171</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1077555221218949</v>
+        <v>0.107755522121895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08755983228483061</v>
+        <v>0.08644508558882037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1299537390818589</v>
+        <v>0.1314834375261802</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>221407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>197797</v>
+        <v>198324</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>244481</v>
+        <v>242546</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4581992348040625</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4093374385429395</v>
+        <v>0.4104294866559346</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5059497847529797</v>
+        <v>0.5019443721319781</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>295</v>
@@ -1334,19 +1334,19 @@
         <v>205629</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>187704</v>
+        <v>188255</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>223209</v>
+        <v>222863</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4859563017663739</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4435937230947966</v>
+        <v>0.4448966833758737</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5275031708397164</v>
+        <v>0.5266851227969661</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>532</v>
@@ -1355,19 +1355,19 @@
         <v>427036</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>396197</v>
+        <v>397417</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>457488</v>
+        <v>453898</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4711579590599886</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4371323021988061</v>
+        <v>0.4384785976438594</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5047563315530226</v>
+        <v>0.5007952478729499</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>84427</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67715</v>
+        <v>68202</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103167</v>
+        <v>104888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1747200530732017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1401345473530162</v>
+        <v>0.1411429484115302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2135016701116431</v>
+        <v>0.2170649674539518</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -1405,19 +1405,19 @@
         <v>62977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51695</v>
+        <v>50072</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77975</v>
+        <v>76108</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1488309711778804</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.122169108359225</v>
+        <v>0.1183323543767918</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1842761127128642</v>
+        <v>0.1798636388573222</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -1426,19 +1426,19 @@
         <v>147404</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128982</v>
+        <v>126788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172265</v>
+        <v>170072</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1626334203617527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1423083002167868</v>
+        <v>0.1398882496035259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.19006367249565</v>
+        <v>0.187644380473329</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>39094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28521</v>
+        <v>28432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55632</v>
+        <v>53614</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08090390519397496</v>
+        <v>0.08090390519397495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05902325214987072</v>
+        <v>0.05883871995678307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.115128862429136</v>
+        <v>0.1109535827832517</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -1476,19 +1476,19 @@
         <v>76379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63659</v>
+        <v>62937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91805</v>
+        <v>91412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1805043717020651</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1504443798392261</v>
+        <v>0.1487358392896042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2169601765900333</v>
+        <v>0.2160308914287764</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -1497,19 +1497,19 @@
         <v>115473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>98053</v>
+        <v>97623</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135714</v>
+        <v>135121</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1274035941918233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1081840845406397</v>
+        <v>0.1077097902864848</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1497359892549348</v>
+        <v>0.149081485975067</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>52869</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39052</v>
+        <v>39997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68627</v>
+        <v>70903</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1123285671895687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08297082250455615</v>
+        <v>0.08498015004914745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1458070899630706</v>
+        <v>0.150644681601831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1622,19 +1622,19 @@
         <v>11121</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6314</v>
+        <v>6127</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18462</v>
+        <v>18481</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05954841288662409</v>
+        <v>0.0595484128866241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03380761779478467</v>
+        <v>0.0328048205716081</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09885423241512313</v>
+        <v>0.09895735249555572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -1643,19 +1643,19 @@
         <v>63991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47863</v>
+        <v>49812</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81724</v>
+        <v>82959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09733486933294407</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07280413594458264</v>
+        <v>0.07576758979300298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1243080646181305</v>
+        <v>0.1261876847925025</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>39048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27319</v>
+        <v>27107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54185</v>
+        <v>54788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08296343224981362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05804332660854285</v>
+        <v>0.05759371804808482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1151231274922336</v>
+        <v>0.1164039810410706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1693,19 +1693,19 @@
         <v>13035</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8190</v>
+        <v>8071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20094</v>
+        <v>20571</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06979407679128541</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04385090361490657</v>
+        <v>0.04321749683143727</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1075932521330914</v>
+        <v>0.1101459118355594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1714,19 +1714,19 @@
         <v>52083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39151</v>
+        <v>39648</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67420</v>
+        <v>69978</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07922230380258878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05955121870166446</v>
+        <v>0.06030844803024141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1025512772221978</v>
+        <v>0.1064419824311419</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>204284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>182059</v>
+        <v>182912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>228031</v>
+        <v>227985</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4340302206049779</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3868110187395743</v>
+        <v>0.388622706892668</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.484484021195251</v>
+        <v>0.4843861888463583</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>138</v>
@@ -1764,19 +1764,19 @@
         <v>84716</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>73433</v>
+        <v>73203</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96550</v>
+        <v>96460</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4536051963074468</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3931933494274513</v>
+        <v>0.3919595817835877</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5169717375373097</v>
+        <v>0.5164871126401005</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>372</v>
@@ -1785,19 +1785,19 @@
         <v>288999</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>263672</v>
+        <v>263800</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>313352</v>
+        <v>316808</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4395910469252073</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4010662148192746</v>
+        <v>0.4012599969159416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4766337912999558</v>
+        <v>0.4818896755340557</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>86299</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70214</v>
+        <v>69327</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104390</v>
+        <v>104914</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1833556645418179</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1491796483841598</v>
+        <v>0.1472946573170519</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2217924442697999</v>
+        <v>0.2229051127839958</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -1835,19 +1835,19 @@
         <v>47029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38350</v>
+        <v>37603</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57663</v>
+        <v>57592</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2518142356262268</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2053444734711707</v>
+        <v>0.2013445559779122</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3087544087134274</v>
+        <v>0.308372422477505</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -1856,19 +1856,19 @@
         <v>133329</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114373</v>
+        <v>114208</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153790</v>
+        <v>154238</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.202803260784988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1739704562586234</v>
+        <v>0.173719826201705</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2339262313421837</v>
+        <v>0.2346081797405407</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>88166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70865</v>
+        <v>70523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108273</v>
+        <v>106073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.187322115413822</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1505634121256585</v>
+        <v>0.149836085418565</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2300422212276657</v>
+        <v>0.2253667245926991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1906,19 +1906,19 @@
         <v>30860</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23095</v>
+        <v>22572</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40289</v>
+        <v>39019</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1652380783884169</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1236581713437627</v>
+        <v>0.1208626117744431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2157257314248785</v>
+        <v>0.2089226905484929</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>130</v>
@@ -1927,19 +1927,19 @@
         <v>119026</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101642</v>
+        <v>98501</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141499</v>
+        <v>139750</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1810485191542718</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1546048528946021</v>
+        <v>0.1498280530200348</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2152312583577395</v>
+        <v>0.2125704782292377</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>87170</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65666</v>
+        <v>67276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112581</v>
+        <v>107431</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07729948785003178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0582305399071092</v>
+        <v>0.05965867904347452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09983315238445721</v>
+        <v>0.09526703225547307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2052,19 +2052,19 @@
         <v>56807</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43846</v>
+        <v>44543</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71115</v>
+        <v>72207</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06604584306211263</v>
+        <v>0.06604584306211261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05097748145409622</v>
+        <v>0.05178770811494761</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08268109465262309</v>
+        <v>0.08395073481372392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>136</v>
@@ -2073,19 +2073,19 @@
         <v>143976</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119130</v>
+        <v>121235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>173586</v>
+        <v>171773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07243009588718759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05993060589854892</v>
+        <v>0.06098963508999232</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08732557928165995</v>
+        <v>0.08641352488860113</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>117411</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95320</v>
+        <v>92349</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146831</v>
+        <v>142440</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1041168610726488</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08452701741381366</v>
+        <v>0.0818920623350093</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1302052545567237</v>
+        <v>0.1263114979325293</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>66</v>
@@ -2123,19 +2123,19 @@
         <v>56696</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>44806</v>
+        <v>43091</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72602</v>
+        <v>72867</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06591770857519376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05209323640271865</v>
+        <v>0.05009953240126903</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08440979977128908</v>
+        <v>0.08471881398756934</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>156</v>
@@ -2144,19 +2144,19 @@
         <v>174108</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>147885</v>
+        <v>146841</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>204411</v>
+        <v>205725</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.08758829191448182</v>
+        <v>0.08758829191448184</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07439625472132508</v>
+        <v>0.0738712534539939</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1028326558917321</v>
+        <v>0.1034938207598307</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>495143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>462106</v>
+        <v>462348</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>531697</v>
+        <v>530973</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4390779464039052</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4097821765634199</v>
+        <v>0.4099965458734069</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4714931229201053</v>
+        <v>0.4708511339610118</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>601</v>
@@ -2194,19 +2194,19 @@
         <v>398347</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>373544</v>
+        <v>370197</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>423780</v>
+        <v>422313</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4631358246164366</v>
+        <v>0.4631358246164365</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4342979157176111</v>
+        <v>0.4304070723390347</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4927051544184191</v>
+        <v>0.4909988213026101</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1127</v>
@@ -2215,19 +2215,19 @@
         <v>893491</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>847411</v>
+        <v>847563</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>934917</v>
+        <v>939071</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4494876617467017</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4263065238047337</v>
+        <v>0.4263830864424416</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4703280328131844</v>
+        <v>0.4724179438179129</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>232587</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>201862</v>
+        <v>204717</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>259356</v>
+        <v>262930</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2062515349040002</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1790055823702587</v>
+        <v>0.1815366626013023</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2299892766447275</v>
+        <v>0.2331586561009567</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>239</v>
@@ -2265,19 +2265,19 @@
         <v>160241</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>142089</v>
+        <v>141198</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181407</v>
+        <v>180633</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1863035811415768</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1651983603260289</v>
+        <v>0.1641628161920041</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2109121983701371</v>
+        <v>0.2100123204500054</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>478</v>
@@ -2286,19 +2286,19 @@
         <v>392829</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>361998</v>
+        <v>354510</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>428350</v>
+        <v>425548</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1976201619082747</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1821098588245256</v>
+        <v>0.1783430906641921</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2154899136478542</v>
+        <v>0.2140802400524608</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>195377</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>168999</v>
+        <v>171134</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>224465</v>
+        <v>222896</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.173254169769414</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1498633387675423</v>
+        <v>0.1517561314583949</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1990490612277671</v>
+        <v>0.1976578353575613</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>253</v>
@@ -2336,19 +2336,19 @@
         <v>188017</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>167736</v>
+        <v>168775</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>209852</v>
+        <v>211656</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2185970426046802</v>
+        <v>0.2185970426046803</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1950174765502106</v>
+        <v>0.1962251799724509</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2439828113019821</v>
+        <v>0.2460802605548203</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>445</v>
@@ -2357,19 +2357,19 @@
         <v>383394</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>351162</v>
+        <v>350052</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>420653</v>
+        <v>422666</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.192873788543354</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1766587761272908</v>
+        <v>0.1761003373818766</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2116177069353857</v>
+        <v>0.2126302235224788</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>41404</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28095</v>
+        <v>28303</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>58614</v>
+        <v>59116</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07319665782049289</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04966873421174198</v>
+        <v>0.05003647834928995</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1036223736727703</v>
+        <v>0.1045107891688893</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -2482,19 +2482,19 @@
         <v>22895</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16442</v>
+        <v>16537</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31723</v>
+        <v>32823</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02764834105325883</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01985521676308891</v>
+        <v>0.0199706641787898</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03830903922656574</v>
+        <v>0.03963750853866187</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>66</v>
@@ -2503,19 +2503,19 @@
         <v>64298</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>48870</v>
+        <v>49426</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>82722</v>
+        <v>84510</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04613431859531055</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03506469456127699</v>
+        <v>0.03546316581044468</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05935323686957935</v>
+        <v>0.06063613245442671</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>73639</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>54136</v>
+        <v>55850</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>97864</v>
+        <v>98643</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1301860738884734</v>
+        <v>0.1301860738884733</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09570649853483214</v>
+        <v>0.0987363319299519</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1730126018929061</v>
+        <v>0.1743891193476776</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -2553,19 +2553,19 @@
         <v>23754</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16710</v>
+        <v>16241</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33233</v>
+        <v>32405</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02868540130978361</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02017938781431503</v>
+        <v>0.0196132839574869</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04013292873629661</v>
+        <v>0.03913269191372072</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>86</v>
@@ -2574,19 +2574,19 @@
         <v>97393</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>76658</v>
+        <v>75180</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>121890</v>
+        <v>122710</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06987987976617696</v>
+        <v>0.06987987976617695</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05500225589033042</v>
+        <v>0.05394190760841993</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08745644961962293</v>
+        <v>0.08804489816926428</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>200633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>174991</v>
+        <v>175910</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>224067</v>
+        <v>225024</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3546953965971475</v>
+        <v>0.3546953965971474</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3093632140519239</v>
+        <v>0.3109890443004188</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3961239190897484</v>
+        <v>0.3978164412690595</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>631</v>
@@ -2624,19 +2624,19 @@
         <v>402711</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>379410</v>
+        <v>379329</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>429310</v>
+        <v>428067</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4863226754432753</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4581837677057501</v>
+        <v>0.4580863256001804</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5184444724586007</v>
+        <v>0.5169441559691932</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>847</v>
@@ -2645,19 +2645,19 @@
         <v>603343</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>568824</v>
+        <v>569940</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>638853</v>
+        <v>637768</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4329011860585939</v>
+        <v>0.4329011860585938</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4081332635125167</v>
+        <v>0.4089342223502915</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4583791875848667</v>
+        <v>0.4576006937258537</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>121392</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>101886</v>
+        <v>102413</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>140744</v>
+        <v>141159</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2146063523008928</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1801227304157889</v>
+        <v>0.181053557330764</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2488187575443423</v>
+        <v>0.2495526612807415</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>321</v>
@@ -2695,19 +2695,19 @@
         <v>214835</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>191672</v>
+        <v>193472</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>235846</v>
+        <v>236496</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2594393881662729</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2314673715445545</v>
+        <v>0.2336409761159798</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2848125581189418</v>
+        <v>0.2855984564289077</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>445</v>
@@ -2716,19 +2716,19 @@
         <v>336226</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>309206</v>
+        <v>306515</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>370403</v>
+        <v>367604</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.241243710411928</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2218567862855957</v>
+        <v>0.2199255934892081</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2657656745814446</v>
+        <v>0.2637569853494223</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>128581</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>108018</v>
+        <v>109398</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>152348</v>
+        <v>153393</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2273155193929936</v>
+        <v>0.2273155193929935</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1909635523088375</v>
+        <v>0.1934032145505301</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2693329115894788</v>
+        <v>0.2711802158697897</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>265</v>
@@ -2766,19 +2766,19 @@
         <v>163879</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>144798</v>
+        <v>145611</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>182088</v>
+        <v>184444</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1979041940274095</v>
+        <v>0.1979041940274096</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1748611733949654</v>
+        <v>0.1758433336360468</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2198938769000609</v>
+        <v>0.2227384884379941</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>387</v>
@@ -2787,19 +2787,19 @@
         <v>292460</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>264441</v>
+        <v>263819</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>324373</v>
+        <v>323056</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2098409051679907</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1897371482306779</v>
+        <v>0.1892912890206855</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2327390626363799</v>
+        <v>0.2317938759501455</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>67021</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>46150</v>
+        <v>47172</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>91066</v>
+        <v>88374</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2825152587183887</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1945384338392765</v>
+        <v>0.1988450854047065</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3838747613004936</v>
+        <v>0.3725270984877704</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>47</v>
@@ -2912,19 +2912,19 @@
         <v>41058</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>29258</v>
+        <v>29370</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>55816</v>
+        <v>56117</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04882856356700029</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03479549351529636</v>
+        <v>0.03492867647542398</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06638051455879747</v>
+        <v>0.06673808951761176</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>78</v>
@@ -2933,19 +2933,19 @@
         <v>108078</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>84119</v>
+        <v>84241</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>137517</v>
+        <v>137317</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1002503983113237</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07802651351325988</v>
+        <v>0.07813939503497215</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1275566739034641</v>
+        <v>0.1273718191156788</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>64047</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>43423</v>
+        <v>44154</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>86057</v>
+        <v>86267</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2699805568857628</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1830422547675619</v>
+        <v>0.1861252737352763</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3627606698430577</v>
+        <v>0.3636462302548623</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>50</v>
@@ -2983,19 +2983,19 @@
         <v>47708</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>34266</v>
+        <v>35939</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>65093</v>
+        <v>62701</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05673791701453891</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04075094841576443</v>
+        <v>0.04274138097706896</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07741307085093364</v>
+        <v>0.07456855655908975</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>80</v>
@@ -3004,19 +3004,19 @@
         <v>111755</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>87553</v>
+        <v>87271</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>141503</v>
+        <v>139398</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1036611181013519</v>
+        <v>0.1036611181013518</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08121151476814191</v>
+        <v>0.08095050526657462</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1312544043380097</v>
+        <v>0.1293017864189882</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>77444</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>56997</v>
+        <v>55379</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>103152</v>
+        <v>102092</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3264549793825372</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2402641425990674</v>
+        <v>0.2334433735403804</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4348219776505195</v>
+        <v>0.4303553766927272</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>483</v>
@@ -3054,19 +3054,19 @@
         <v>341553</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>314100</v>
+        <v>313137</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>370817</v>
+        <v>370093</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4061981798957997</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3735488946625988</v>
+        <v>0.3724034918888148</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4410004164570329</v>
+        <v>0.4401393618701934</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>518</v>
@@ -3075,19 +3075,19 @@
         <v>418998</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>382607</v>
+        <v>384458</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>452599</v>
+        <v>456179</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3886510034246702</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3548964371888602</v>
+        <v>0.3566130592497218</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4198185282274199</v>
+        <v>0.4231392716885338</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>19733</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8951</v>
+        <v>9384</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44192</v>
+        <v>40743</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08318284495228873</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.037732454987257</v>
+        <v>0.03955760708056102</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.186285583560751</v>
+        <v>0.1717451702021551</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>362</v>
@@ -3125,19 +3125,19 @@
         <v>245486</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>221381</v>
+        <v>221817</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>271440</v>
+        <v>270887</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2919488365285974</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2632814531549868</v>
+        <v>0.2637999878800242</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3228140965210234</v>
+        <v>0.3221565295533443</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>373</v>
@@ -3146,19 +3146,19 @@
         <v>265220</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>238196</v>
+        <v>235187</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>298657</v>
+        <v>296437</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2460107042266395</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2209444845927062</v>
+        <v>0.2181531698150668</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2770266248920768</v>
+        <v>0.2749672885998056</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>8983</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2935</v>
+        <v>2992</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>24389</v>
+        <v>23249</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03786636006102258</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01237360404390264</v>
+        <v>0.01261167560379265</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1028102142950875</v>
+        <v>0.09800349200189166</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>213</v>
@@ -3196,19 +3196,19 @@
         <v>165048</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>145446</v>
+        <v>145482</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>189590</v>
+        <v>188096</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1962865029940637</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1729743405072957</v>
+        <v>0.1730168484504427</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.225473164856435</v>
+        <v>0.2236965577839831</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>218</v>
@@ -3217,19 +3217,19 @@
         <v>174031</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>150379</v>
+        <v>150193</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>201802</v>
+        <v>202672</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1614267759360145</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1394871119104217</v>
+        <v>0.1393148590267601</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1871862191688929</v>
+        <v>0.1879927382552719</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>414100</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>367774</v>
+        <v>373603</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>455041</v>
+        <v>460285</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1206405669685497</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1071443645832244</v>
+        <v>0.1088425105752113</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1325680290785411</v>
+        <v>0.1340958777845032</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>322</v>
@@ -3342,19 +3342,19 @@
         <v>253909</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>225546</v>
+        <v>226144</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>284589</v>
+        <v>282463</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06999836406116261</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06217920424700656</v>
+        <v>0.06234396965395991</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07845629391664126</v>
+        <v>0.07787028965315292</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>644</v>
@@ -3363,19 +3363,19 @@
         <v>668008</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>614927</v>
+        <v>614780</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>722240</v>
+        <v>725476</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.09462063216751244</v>
+        <v>0.09462063216751243</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08710180776903269</v>
+        <v>0.08708107058665525</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1023022750144618</v>
+        <v>0.102760623042363</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>436717</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>390177</v>
+        <v>390747</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>488337</v>
+        <v>486068</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1272297507263495</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1136711984464717</v>
+        <v>0.1138372255466444</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1422681841069052</v>
+        <v>0.1416071953797756</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>275</v>
@@ -3413,19 +3413,19 @@
         <v>228374</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>202593</v>
+        <v>202247</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>262017</v>
+        <v>258009</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.06295881678208187</v>
+        <v>0.06295881678208189</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05585144197809256</v>
+        <v>0.05575604753270232</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0722337933452095</v>
+        <v>0.07112876278191248</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>609</v>
@@ -3434,19 +3434,19 @@
         <v>665091</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>611573</v>
+        <v>608307</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>716479</v>
+        <v>720010</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09420738173719011</v>
+        <v>0.09420738173719009</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08662677316871739</v>
+        <v>0.08616424105742661</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1014863486129039</v>
+        <v>0.1019864281670893</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>1429812</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1365051</v>
+        <v>1370935</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1489645</v>
+        <v>1498283</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4165503377394504</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.397683233423945</v>
+        <v>0.3993973855161216</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4339814213773825</v>
+        <v>0.436498115964795</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2511</v>
@@ -3484,19 +3484,19 @@
         <v>1675903</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1622587</v>
+        <v>1620478</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1728774</v>
+        <v>1728179</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.4620182174384372</v>
+        <v>0.4620182174384371</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4473200495901843</v>
+        <v>0.4467385461318856</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.476594000818949</v>
+        <v>0.4764299197992719</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4010</v>
@@ -3505,19 +3505,19 @@
         <v>3105715</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3024515</v>
+        <v>3021475</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3188457</v>
+        <v>3191187</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4399117082444541</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4284100126706338</v>
+        <v>0.427979427864681</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4516317959779433</v>
+        <v>0.4520184300001487</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>637429</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>590823</v>
+        <v>596451</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>689040</v>
+        <v>695972</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1857034641824348</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1721256503042987</v>
+        <v>0.1737654575384862</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2007394586812095</v>
+        <v>0.2027590264004465</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1168</v>
@@ -3555,19 +3555,19 @@
         <v>787839</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>741864</v>
+        <v>747448</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>828598</v>
+        <v>833655</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2171940840452711</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2045195318888644</v>
+        <v>0.2060589417003754</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2284306063608562</v>
+        <v>0.2298248019323823</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1809</v>
@@ -3576,19 +3576,19 @@
         <v>1425268</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1363790</v>
+        <v>1359505</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1493541</v>
+        <v>1490035</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2018833266021979</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1931751932389329</v>
+        <v>0.1925682487964339</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2115538429242964</v>
+        <v>0.2110573045451069</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>514450</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>466678</v>
+        <v>466412</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>556742</v>
+        <v>560117</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1498758803832156</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1359583286823587</v>
+        <v>0.135880723640033</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1621969869265433</v>
+        <v>0.1631800365035636</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>957</v>
@@ -3626,19 +3626,19 @@
         <v>681327</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>640411</v>
+        <v>646024</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>723427</v>
+        <v>725505</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1878305176730472</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1765505363884419</v>
+        <v>0.1780978897600416</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1994367125539817</v>
+        <v>0.2000094719691049</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1452</v>
@@ -3647,19 +3647,19 @@
         <v>1195778</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1133577</v>
+        <v>1134704</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1255033</v>
+        <v>1264978</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1693769512486455</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1605665206879414</v>
+        <v>0.1607261371849061</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.177770220856565</v>
+        <v>0.1791789683503707</v>
       </c>
     </row>
     <row r="45">
